--- a/database/industries/urea/khorasan/official/yearly.xlsx
+++ b/database/industries/urea/khorasan/official/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\khorasan\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD983775-C219-4518-B04C-EF1CD858FDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A197FBB9-4596-4355-B9FA-F53855CD2A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>خراسان-پتروشیمی خراسان</t>
@@ -34,21 +34,6 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>دوازده ماهه منتهی به 1395/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1396/12</t>
   </si>
   <si>
@@ -65,9 +50,6 @@
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>هزینه خدمات پس از فروش</t>
@@ -556,16 +538,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N31"/>
+  <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -574,13 +556,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -591,13 +568,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -608,13 +580,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -623,13 +590,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -640,13 +602,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -657,13 +614,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -672,13 +624,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -699,23 +646,8 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -724,420 +656,250 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
         <v>304006</v>
       </c>
-      <c r="N10" s="9">
+      <c r="I10" s="9">
         <v>312796</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="E14" s="9">
         <v>16883</v>
       </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
-        <v>0</v>
-      </c>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="9">
+      <c r="E16" s="9">
         <v>13129</v>
       </c>
-      <c r="K16" s="9">
+      <c r="F16" s="9">
         <v>12140</v>
       </c>
-      <c r="L16" s="9">
+      <c r="G16" s="9">
         <v>13186</v>
       </c>
-      <c r="M16" s="9">
+      <c r="H16" s="9">
         <v>14298</v>
       </c>
-      <c r="N16" s="9">
+      <c r="I16" s="9">
         <v>17908</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="11">
+      <c r="E17" s="11">
         <v>138814</v>
       </c>
-      <c r="K17" s="11">
+      <c r="F17" s="11">
         <v>154415</v>
       </c>
-      <c r="L17" s="11">
+      <c r="G17" s="11">
         <v>199049</v>
       </c>
-      <c r="M17" s="11">
+      <c r="H17" s="11">
         <v>298399</v>
       </c>
-      <c r="N17" s="11">
+      <c r="I17" s="11">
         <v>402113</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="11">
+      <c r="E19" s="11">
         <v>440096</v>
       </c>
-      <c r="K19" s="11">
+      <c r="F19" s="11">
         <v>740008</v>
       </c>
-      <c r="L19" s="11">
+      <c r="G19" s="11">
         <v>598873</v>
       </c>
-      <c r="M19" s="11">
+      <c r="H19" s="11">
         <v>596278</v>
       </c>
-      <c r="N19" s="11">
+      <c r="I19" s="11">
         <v>1355885</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>0</v>
+        <v>608922</v>
       </c>
       <c r="F20" s="13">
-        <v>0</v>
+        <v>906563</v>
       </c>
       <c r="G20" s="13">
-        <v>0</v>
+        <v>811108</v>
       </c>
       <c r="H20" s="13">
-        <v>0</v>
+        <v>1212981</v>
       </c>
       <c r="I20" s="13">
-        <v>0</v>
-      </c>
-      <c r="J20" s="13">
-        <v>608922</v>
-      </c>
-      <c r="K20" s="13">
-        <v>906563</v>
-      </c>
-      <c r="L20" s="13">
-        <v>811108</v>
-      </c>
-      <c r="M20" s="13">
-        <v>1212981</v>
-      </c>
-      <c r="N20" s="13">
         <v>2088702</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1146,13 +908,8 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1161,13 +918,8 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1176,15 +928,10 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1203,23 +950,8 @@
       <c r="I24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1228,87 +960,52 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="9">
+      <c r="E26" s="9">
         <v>337</v>
       </c>
-      <c r="K26" s="9">
+      <c r="F26" s="9">
         <v>1150</v>
       </c>
-      <c r="L26" s="9">
+      <c r="G26" s="9">
         <v>1094</v>
       </c>
-      <c r="M26" s="9">
+      <c r="H26" s="9">
         <v>1074</v>
       </c>
-      <c r="N26" s="9">
+      <c r="I26" s="9">
         <v>1029</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="11">
+      <c r="E27" s="11">
         <v>82</v>
       </c>
-      <c r="K27" s="11">
+      <c r="F27" s="11">
         <v>121</v>
       </c>
-      <c r="L27" s="11">
+      <c r="G27" s="11">
         <v>118</v>
       </c>
-      <c r="M27" s="11">
+      <c r="H27" s="11">
         <v>117</v>
       </c>
-      <c r="N27" s="11">
+      <c r="I27" s="11">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1317,13 +1014,8 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1332,13 +1024,8 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1347,13 +1034,8 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1362,11 +1044,6 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/urea/khorasan/official/yearly.xlsx
+++ b/database/industries/urea/khorasan/official/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A197FBB9-4596-4355-B9FA-F53855CD2A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E6359F-A507-4C49-9803-B9C84BC01F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
@@ -542,12 +542,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -557,7 +557,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -569,7 +569,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -581,7 +581,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -591,7 +591,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -603,7 +603,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -615,7 +615,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -625,7 +625,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -647,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -657,7 +657,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>304006</v>
       </c>
       <c r="H10" s="9">
-        <v>304006</v>
+        <v>312796</v>
       </c>
       <c r="I10" s="9">
-        <v>312796</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>453170</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
@@ -745,14 +745,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>16883</v>
+        <v>0</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
@@ -789,51 +789,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>13129</v>
+        <v>12140</v>
       </c>
       <c r="F16" s="9">
-        <v>12140</v>
+        <v>13186</v>
       </c>
       <c r="G16" s="9">
-        <v>13186</v>
+        <v>14298</v>
       </c>
       <c r="H16" s="9">
-        <v>14298</v>
+        <v>17908</v>
       </c>
       <c r="I16" s="9">
-        <v>17908</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26246</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>138814</v>
+        <v>154415</v>
       </c>
       <c r="F17" s="11">
-        <v>154415</v>
+        <v>199049</v>
       </c>
       <c r="G17" s="11">
-        <v>199049</v>
+        <v>298399</v>
       </c>
       <c r="H17" s="11">
-        <v>298399</v>
+        <v>402113</v>
       </c>
       <c r="I17" s="11">
-        <v>402113</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>538646</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
@@ -855,51 +855,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>440096</v>
+        <v>740008</v>
       </c>
       <c r="F19" s="11">
-        <v>740008</v>
+        <v>598873</v>
       </c>
       <c r="G19" s="11">
-        <v>598873</v>
+        <v>596278</v>
       </c>
       <c r="H19" s="11">
-        <v>596278</v>
+        <v>1355885</v>
       </c>
       <c r="I19" s="11">
-        <v>1355885</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3937550</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>608922</v>
+        <v>906563</v>
       </c>
       <c r="F20" s="13">
-        <v>906563</v>
+        <v>811108</v>
       </c>
       <c r="G20" s="13">
-        <v>811108</v>
+        <v>1212981</v>
       </c>
       <c r="H20" s="13">
-        <v>1212981</v>
+        <v>2088702</v>
       </c>
       <c r="I20" s="13">
-        <v>2088702</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4955612</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -909,7 +909,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -919,7 +919,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -929,7 +929,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
@@ -951,7 +951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -961,51 +961,51 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>337</v>
+        <v>1150</v>
       </c>
       <c r="F26" s="9">
-        <v>1150</v>
+        <v>1094</v>
       </c>
       <c r="G26" s="9">
-        <v>1094</v>
+        <v>1074</v>
       </c>
       <c r="H26" s="9">
-        <v>1074</v>
+        <v>1029</v>
       </c>
       <c r="I26" s="9">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="F27" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G27" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H27" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I27" s="11">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1015,7 +1015,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1025,7 +1025,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1035,7 +1035,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
